--- a/DataFiles_Excel/Top5CFDAInternationalBarChart/topFiveCFDAdiscInternationalResearch.xlsx
+++ b/DataFiles_Excel/Top5CFDAInternationalBarChart/topFiveCFDAdiscInternationalResearch.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jim.ide\Desktop\annual-report-html2excel\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Engineering Projects\Annual Report\2016-html2excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -67,7 +67,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,8 +203,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -552,23 +567,26 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -926,16 +944,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
@@ -943,8 +962,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6"/>
@@ -960,7 +979,7 @@
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -974,7 +993,7 @@
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -993,7 +1012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>93855</v>
       </c>
@@ -1007,7 +1026,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>93283</v>
       </c>

--- a/DataFiles_Excel/Top5CFDAInternationalBarChart/topFiveCFDAdiscInternationalResearch.xlsx
+++ b/DataFiles_Excel/Top5CFDAInternationalBarChart/topFiveCFDAdiscInternationalResearch.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Engineering Projects\Annual Report\2016-html2excel\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cacigcc-my.sharepoint.com/personal/ashley_smith_caci_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="topFiveCFDAdiscInternationalRes" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Top 5 Research Activity Type Awards</t>
-  </si>
-  <si>
     <t>The data displayed in the table reflect awards classified by OPDIVs as Research awards. It is provided as a text alternative to the interactive chart on the Top 5 CFDA page of this website.</t>
   </si>
   <si>
-    <t>Top 5 Research Activity Type Awards Description</t>
-  </si>
-  <si>
     <t>The following table represents the CFDA programs with the largest award funding classified by the TAGGS activity type as 'Research.'</t>
   </si>
   <si>
@@ -58,6 +52,12 @@
   </si>
   <si>
     <t>Global AIDS</t>
+  </si>
+  <si>
+    <t>Top 5 International Research Activity Type Awards</t>
+  </si>
+  <si>
+    <t>Top 5 International Research Activity Type Awards Description</t>
   </si>
 </sst>
 </file>
@@ -567,7 +567,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -579,6 +579,7 @@
     <xf numFmtId="6" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -589,6 +590,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -945,79 +948,85 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
     </row>
-    <row r="3" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>93855</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" s="4">
         <v>49440197</v>
@@ -1026,12 +1035,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>93283</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4">
         <v>20214854</v>
@@ -1040,12 +1049,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>93172</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4">
         <v>15576631</v>
@@ -1054,12 +1063,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>93242</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" s="4">
         <v>12279580</v>
@@ -1068,12 +1077,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>93067</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" s="4">
         <v>12040633</v>
@@ -1083,10 +1092,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A3:D3"/>
   </mergeCells>
